--- a/проверка формулы bmp180.xlsx
+++ b/проверка формулы bmp180.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="температура" sheetId="1" r:id="rId1"/>
+    <sheet name="давление" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>ac1</t>
   </si>
@@ -86,9 +87,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>ред библиотеки</t>
-  </si>
-  <si>
     <t>температура</t>
   </si>
   <si>
@@ -96,12 +94,69 @@
   </si>
   <si>
     <t>x2_2</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3 </t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>ac2*b6</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>15 этаж</t>
+  </si>
+  <si>
+    <t>18 этаж</t>
+  </si>
+  <si>
+    <t>па</t>
+  </si>
+  <si>
+    <t>мм.рт.ст</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>dh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -131,8 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,16 +469,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>408</v>
+      </c>
+      <c r="C2">
+        <v>7911</v>
+      </c>
+      <c r="D2">
+        <v>7338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>(B14-B7)*B6/2^15</f>
+        <v>4743.4071350097656</v>
+      </c>
+      <c r="H2">
+        <f>(C14-C7)*C6/2^15</f>
+        <v>5761.2467651367188</v>
+      </c>
+      <c r="I2">
+        <f>(D14-D7)*D6/2^15</f>
+        <v>6872.3744201660156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-72</v>
+      </c>
+      <c r="C3">
+        <v>-934</v>
+      </c>
+      <c r="D3">
+        <v>-1224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <f>B11*2^11/(G2+B12)</f>
+        <v>-2343.8672618025853</v>
+      </c>
+      <c r="H3">
+        <f>C11*2^11/(H2+C12)</f>
+        <v>-2768.3286797259693</v>
+      </c>
+      <c r="I3">
+        <f>D11*2^11/(I2+D12)</f>
+        <v>-2437.735088437606</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <f>I2+D12</f>
+        <v>9304.3744201660156</v>
+      </c>
+      <c r="M3">
+        <f>22681600/L3</f>
+        <v>2437.735088437606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-14383</v>
+      </c>
+      <c r="C4">
+        <v>-14306</v>
+      </c>
+      <c r="D4">
+        <v>-14704</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <f>G2+G3</f>
+        <v>2399.5398732071803</v>
+      </c>
+      <c r="H4">
+        <f>H2+H3</f>
+        <v>2992.9180854107494</v>
+      </c>
+      <c r="I4">
+        <f>I2+I3</f>
+        <v>4434.6393317284092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32741</v>
+      </c>
+      <c r="C5">
+        <v>31567</v>
+      </c>
+      <c r="D5">
+        <v>33266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32757</v>
+      </c>
+      <c r="C6">
+        <v>25671</v>
+      </c>
+      <c r="D6">
+        <v>24733</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <f>(G4+8)/2^4</f>
+        <v>150.47124207544877</v>
+      </c>
+      <c r="H6">
+        <f>(H4+8)/2^4</f>
+        <v>187.55738033817184</v>
+      </c>
+      <c r="I6">
+        <f>(I4+8)/2^4</f>
+        <v>277.66495823302557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>23153</v>
+      </c>
+      <c r="C7">
+        <v>18974</v>
+      </c>
+      <c r="D7">
+        <v>16879</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <f>G6/10</f>
+        <v>15.047124207544877</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:I7" si="0">H6/10</f>
+        <v>18.755738033817185</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>27.766495823302556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6190</v>
+      </c>
+      <c r="C8">
+        <v>5498</v>
+      </c>
+      <c r="D8">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>66</v>
+      </c>
+      <c r="L9">
+        <f>D11*2^11</f>
+        <v>-22681600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-32768</v>
+      </c>
+      <c r="C10">
+        <v>-32768</v>
+      </c>
+      <c r="D10">
+        <v>-32768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-8711</v>
+      </c>
+      <c r="C11">
+        <v>-11075</v>
+      </c>
+      <c r="D11">
+        <v>-11075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2868</v>
+      </c>
+      <c r="C12">
+        <v>2432</v>
+      </c>
+      <c r="D12">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>27898</v>
+      </c>
+      <c r="C14">
+        <v>26328</v>
+      </c>
+      <c r="D14">
+        <f>давление!C14</f>
+        <v>25984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>MOD(ABS(D11)*2^11/4,2^16)</f>
+        <v>34304</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>ABS(D11)*2^11/2^11</f>
+        <v>11075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="158" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -427,21 +803,12 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
+      <c r="G1" t="s">
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -453,28 +820,18 @@
         <v>408</v>
       </c>
       <c r="C2">
-        <v>7911</v>
-      </c>
-      <c r="D2">
         <v>7338</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <f>(B14-B7)*B6/2^15</f>
         <v>4743.4071350097656</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <f>(C14-C7)*C6/2^15</f>
-        <v>5761.2467651367188</v>
-      </c>
-      <c r="J2">
-        <f>(D14-D7)*D6/2^15</f>
-        <v>7218.8236083984375</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+        <v>6872.3744201660156</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -485,36 +842,18 @@
         <v>-72</v>
       </c>
       <c r="C3">
-        <v>-934</v>
-      </c>
-      <c r="D3">
         <v>-1224</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3">
+        <f>B11*2^11/(G2+B12)</f>
+        <v>-2343.8672618025853</v>
+      </c>
       <c r="H3">
-        <f>B11*2^11/(H2+B12)</f>
-        <v>-2343.8672618025853</v>
-      </c>
-      <c r="I3">
-        <f>C11*2^11/(I2+C12)</f>
-        <v>-2768.3286797259693</v>
-      </c>
-      <c r="J3">
-        <f>D11*2^11/(J2+D12)</f>
-        <v>-2350.2242834758463</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <f>J2+D12</f>
-        <v>9650.8236083984375</v>
-      </c>
-      <c r="N3">
-        <f>22681600/M3</f>
-        <v>2350.2242834758463</v>
+        <f>C11*2^11/(H2+C12)</f>
+        <v>-2437.735088437606</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -525,25 +864,18 @@
         <v>-14383</v>
       </c>
       <c r="C4">
-        <v>-14306</v>
-      </c>
-      <c r="D4">
         <v>-14704</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
+      </c>
+      <c r="G4">
+        <f>G2+G3</f>
+        <v>2399.5398732071803</v>
       </c>
       <c r="H4">
         <f>H2+H3</f>
-        <v>2399.5398732071803</v>
-      </c>
-      <c r="I4">
-        <f>I2+I3</f>
-        <v>2992.9180854107494</v>
-      </c>
-      <c r="J4">
-        <f>J2+J3</f>
-        <v>4868.5993249225912</v>
+        <v>4434.6393317284092</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -554,10 +886,13 @@
         <v>32741</v>
       </c>
       <c r="C5">
-        <v>31567</v>
-      </c>
-      <c r="D5">
         <v>33266</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -568,25 +903,27 @@
         <v>32757</v>
       </c>
       <c r="C6">
-        <v>25671</v>
-      </c>
-      <c r="D6">
         <v>24733</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H6">
-        <f>(H4+8)/2^4</f>
-        <v>150.47124207544877</v>
-      </c>
-      <c r="I6">
-        <f>(I4+8)/2^4</f>
-        <v>187.55738033817184</v>
-      </c>
-      <c r="J6">
-        <f>(J4+8)/2^4</f>
-        <v>304.78745780766195</v>
+        <f>температура!I7</f>
+        <v>27.766495823302556</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6">
+        <v>99290</v>
+      </c>
+      <c r="N6">
+        <f>0.0075*M6</f>
+        <v>744.67499999999995</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -597,25 +934,17 @@
         <v>23153</v>
       </c>
       <c r="C7">
-        <v>18974</v>
-      </c>
-      <c r="D7">
         <v>16879</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <f>H6/10</f>
-        <v>15.047124207544877</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:J7" si="0">I6/10</f>
-        <v>18.755738033817185</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>30.478745780766197</v>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>99190</v>
+      </c>
+      <c r="N7">
+        <f>0.0075*M7</f>
+        <v>743.92499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -628,8 +957,16 @@
       <c r="C8">
         <v>5498</v>
       </c>
-      <c r="D8">
-        <v>5498</v>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <f>G4-4000</f>
+        <v>-1600.4601267928197</v>
+      </c>
+      <c r="H8">
+        <f>H4-4000</f>
+        <v>434.63933172840916</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -640,14 +977,24 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>46</v>
-      </c>
-      <c r="D9">
         <v>66</v>
       </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>(B9*(G8*G8/2^12))/2^11</f>
+        <v>1.221405323721737</v>
+      </c>
+      <c r="H9">
+        <f>(C9*(H8*H8/2^12))/2^11</f>
+        <v>1.4863191858805411</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
       <c r="M9">
-        <f>D11*2^11</f>
-        <v>-22681600</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -660,8 +1007,29 @@
       <c r="C10">
         <v>-32768</v>
       </c>
-      <c r="D10">
-        <v>-32768</v>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f>B3*G8/2^11</f>
+        <v>56.266176332560065</v>
+      </c>
+      <c r="H10">
+        <f>C3*H8/2^11</f>
+        <v>-259.76491310330704</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <f>C3*H8</f>
+        <v>-531998.54203557281</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>9.81</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -674,8 +1042,22 @@
       <c r="C11">
         <v>-11075</v>
       </c>
-      <c r="D11">
-        <v>-11075</v>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f>G9+G10</f>
+        <v>57.487581656281804</v>
+      </c>
+      <c r="H11">
+        <f>H9+H10</f>
+        <v>-258.27859391742652</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11">
+        <v>8.31</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -688,8 +1070,36 @@
       <c r="C12">
         <v>2432</v>
       </c>
-      <c r="D12">
-        <v>2432</v>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <f>((B2*4+G11)+2)/4</f>
+        <v>422.87189541407042</v>
+      </c>
+      <c r="H12">
+        <f>(C2*4+H11+2)/4</f>
+        <v>7273.9303515206429</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <f>273+20</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f>B4*G8/2^13</f>
+        <v>2809.9875492750398</v>
+      </c>
+      <c r="H13">
+        <f>C4*H8/2^13</f>
+        <v>-780.14364425470319</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -700,22 +1110,152 @@
         <v>27898</v>
       </c>
       <c r="C14">
-        <v>26328</v>
-      </c>
-      <c r="D14">
-        <v>26443</v>
+        <v>25984</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f>B8*(G8*G8/2^12)/2^16</f>
+        <v>59.066398076855876</v>
+      </c>
+      <c r="H14">
+        <f>C8*(H8*H8/2^12)/2^16</f>
+        <v>3.869215380668189</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>-9</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>23843</v>
+      </c>
+      <c r="C15">
+        <v>40206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
       <c r="G15">
-        <f>MOD(ABS(D11)*2^11/4,2^16)</f>
-        <v>34304</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+        <f>(G13+G14+2)/4</f>
+        <v>717.76348683797391</v>
+      </c>
+      <c r="H15">
+        <f>(H13+H14+2)/4</f>
+        <v>-193.56860721850876</v>
+      </c>
+      <c r="I15">
+        <f>H15+32768</f>
+        <v>32574.431392781491</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <f>M7*(EXP(-M9*M10*M14/M11/M12))</f>
+        <v>99294.360734679081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <f>B5*(G15+32768)/2^15</f>
+        <v>33458.172067949286</v>
+      </c>
+      <c r="H16">
+        <f>C5*(H15+32768)/2^15</f>
+        <v>33069.489584725008</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
       <c r="G17">
-        <f>ABS(D11)*2^11/2^11</f>
-        <v>11075</v>
+        <f>(B15-G12)*50000</f>
+        <v>1171006405.2292964</v>
+      </c>
+      <c r="H17">
+        <f>(C15-H12)*50000</f>
+        <v>1646603482.4239678</v>
+      </c>
+      <c r="I17">
+        <f>C15-H12</f>
+        <v>32932.069648479359</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <f>(G17*2)/G16</f>
+        <v>69998.229601493571</v>
+      </c>
+      <c r="H18">
+        <f>(H17*2)/H16</f>
+        <v>99584.450991015212</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f>(G18/2^8)*(G18/2^8)</f>
+        <v>74764.28447484452</v>
+      </c>
+      <c r="H19">
+        <f>(H18/2^8)*(H18/2^8)</f>
+        <v>151322.37059298571</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f>G19*3038/2^16</f>
+        <v>3465.7882115871835</v>
+      </c>
+      <c r="H20">
+        <f>H19*3038/2^16</f>
+        <v>7014.7302530134675</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f>(-7357*G18)/2^16</f>
+        <v>-7857.9250362882722</v>
+      </c>
+      <c r="H21">
+        <f>(-7357*H18)/2^16</f>
+        <v>-11179.242034010298</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
+        <f>G18+(G20+G21+3791)/2^4</f>
+        <v>69960.65854994976</v>
+      </c>
+      <c r="H22">
+        <f>H18+(H20+H21+3791)/2^4</f>
+        <v>99561.106504702911</v>
       </c>
     </row>
   </sheetData>
